--- a/data/trans_orig/P04C05_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P04C05_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>179506</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>154649</v>
+        <v>155286</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>204415</v>
+        <v>204520</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.3613894686245788</v>
+        <v>0.3613894686245789</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3113469697123769</v>
+        <v>0.312627612938298</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4115365476990518</v>
+        <v>0.4117481956105891</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>295</v>
@@ -762,19 +762,19 @@
         <v>222050</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>200709</v>
+        <v>201419</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>245385</v>
+        <v>244680</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.356493307953458</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.322231487093133</v>
+        <v>0.3233712435901643</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3939568410574975</v>
+        <v>0.3928256757044428</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>453</v>
@@ -783,19 +783,19 @@
         <v>401556</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>368809</v>
+        <v>366827</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>432543</v>
+        <v>433733</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3586655243432494</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3294163242861768</v>
+        <v>0.3276457220471145</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3863425004285728</v>
+        <v>0.3874057228557835</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>15659</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9037</v>
+        <v>9256</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>24317</v>
+        <v>25950</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03152507234628794</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0181938253418169</v>
+        <v>0.01863432777986896</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04895577103836121</v>
+        <v>0.05224321441240935</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>17</v>
@@ -833,19 +833,19 @@
         <v>11391</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6559</v>
+        <v>6840</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>17991</v>
+        <v>18676</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01828718582834135</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01052967551095234</v>
+        <v>0.01098150312677552</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02888359378835376</v>
+        <v>0.02998325770220001</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>32</v>
@@ -854,19 +854,19 @@
         <v>27049</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>18292</v>
+        <v>19353</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>37402</v>
+        <v>39364</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.02416026802315</v>
+        <v>0.02416026802314999</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01633826050263192</v>
+        <v>0.01728581649558798</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03340679018499292</v>
+        <v>0.03515949647427251</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>301546</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>278249</v>
+        <v>276108</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>326428</v>
+        <v>327435</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.6070854590291331</v>
+        <v>0.6070854590291332</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5601827707609741</v>
+        <v>0.55587153916281</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6571794887769158</v>
+        <v>0.6592067995630612</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>548</v>
@@ -904,19 +904,19 @@
         <v>389432</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>366488</v>
+        <v>367440</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>410836</v>
+        <v>410072</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6252195062182007</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5883839329983117</v>
+        <v>0.5899125565087936</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6595838937999402</v>
+        <v>0.6583575476949308</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>828</v>
@@ -925,19 +925,19 @@
         <v>690978</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>660347</v>
+        <v>657463</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>726202</v>
+        <v>725806</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6171742076336005</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5898141861589381</v>
+        <v>0.5872388044763359</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6486356503710341</v>
+        <v>0.6482814308969578</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>216433</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>188945</v>
+        <v>188529</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>246769</v>
+        <v>251459</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2254188446725165</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1967895835516597</v>
+        <v>0.1963559320878554</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2570143633560137</v>
+        <v>0.2618987447801933</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>388</v>
@@ -1050,19 +1050,19 @@
         <v>264620</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>239688</v>
+        <v>242247</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>288819</v>
+        <v>290852</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2373860673038512</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.215020349256225</v>
+        <v>0.2173158873931525</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2590948130011884</v>
+        <v>0.2609181793905037</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>588</v>
@@ -1071,19 +1071,19 @@
         <v>481053</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>445000</v>
+        <v>445569</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>521911</v>
+        <v>521094</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.2318482632796374</v>
+        <v>0.2318482632796375</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.21447217755729</v>
+        <v>0.2147466337363522</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2515404413253294</v>
+        <v>0.251146420397143</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>6854</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2436</v>
+        <v>2489</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>16963</v>
+        <v>15080</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.007138399199642815</v>
+        <v>0.007138399199642816</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.002537216958517118</v>
+        <v>0.002592621679296253</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01766742997569478</v>
+        <v>0.01570612201359254</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>14</v>
@@ -1121,19 +1121,19 @@
         <v>9011</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>5053</v>
+        <v>5052</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>16598</v>
+        <v>17040</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.008083944982180331</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.004533211611531233</v>
+        <v>0.004532470165153715</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01488963307502985</v>
+        <v>0.01528621355105176</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>20</v>
@@ -1142,19 +1142,19 @@
         <v>15865</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>9554</v>
+        <v>9810</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>25837</v>
+        <v>24974</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.007646395903256695</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.00460454152561614</v>
+        <v>0.004727808843244602</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01245221220114124</v>
+        <v>0.0120362965169274</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>736850</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>706906</v>
+        <v>701320</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>766980</v>
+        <v>764665</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7674427561278407</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7362550487746535</v>
+        <v>0.7304377755932079</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7988231693183739</v>
+        <v>0.7964121195641962</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1204</v>
@@ -1192,19 +1192,19 @@
         <v>841093</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>815981</v>
+        <v>814225</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>865692</v>
+        <v>862895</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7545299877139685</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7320029801053831</v>
+        <v>0.7304275019875445</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7765973234058638</v>
+        <v>0.7740886396260702</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1908</v>
@@ -1213,19 +1213,19 @@
         <v>1577942</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1537242</v>
+        <v>1538517</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1615518</v>
+        <v>1613140</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.7605053408171057</v>
+        <v>0.7605053408171059</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7408894004972212</v>
+        <v>0.7415040213989305</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7786155087506579</v>
+        <v>0.7774692670236008</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>192431</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>163148</v>
+        <v>166559</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>222612</v>
+        <v>219195</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1838838528684917</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1559014936311555</v>
+        <v>0.1591610902826258</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.212724741824805</v>
+        <v>0.2094596809024934</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>324</v>
@@ -1338,19 +1338,19 @@
         <v>221943</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>199297</v>
+        <v>198821</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>246146</v>
+        <v>243697</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.212185794760975</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.190535577780075</v>
+        <v>0.1900807207442274</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2353245116827637</v>
+        <v>0.2329834658661843</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>504</v>
@@ -1359,19 +1359,19 @@
         <v>414374</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>380650</v>
+        <v>379146</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>457681</v>
+        <v>454064</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1980314720483951</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.181915029238895</v>
+        <v>0.1811958112645587</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2187284242503421</v>
+        <v>0.2169999825900276</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>14010</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7135</v>
+        <v>7686</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24621</v>
+        <v>25151</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01338732798222031</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.006818167942297056</v>
+        <v>0.007344869791944104</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02352772490711382</v>
+        <v>0.0240340799078834</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -1409,19 +1409,19 @@
         <v>7913</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3999</v>
+        <v>4678</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>13269</v>
+        <v>14189</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.007565449728160121</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003823664144843456</v>
+        <v>0.004472735565760519</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01268582317145195</v>
+        <v>0.01356482578745848</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>26</v>
@@ -1430,19 +1430,19 @@
         <v>21923</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>14183</v>
+        <v>13622</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>32244</v>
+        <v>32395</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01047707833351758</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.006778366099349943</v>
+        <v>0.006510024406890236</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01540948180331221</v>
+        <v>0.01548184616642209</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>840039</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>809051</v>
+        <v>810605</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>869771</v>
+        <v>864624</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.802728819149288</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.773117300930358</v>
+        <v>0.7746024980222338</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8311406983353077</v>
+        <v>0.8262217488464106</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1177</v>
@@ -1480,19 +1480,19 @@
         <v>816128</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>792830</v>
+        <v>793088</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>839813</v>
+        <v>840250</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7802487555108647</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7579755587157927</v>
+        <v>0.7582214466122239</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8028925211180233</v>
+        <v>0.8033105912304511</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2013</v>
@@ -1501,19 +1501,19 @@
         <v>1656167</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1613571</v>
+        <v>1617127</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1690453</v>
+        <v>1691443</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7914914496180873</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7711347036969518</v>
+        <v>0.7728343522892041</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8078769409120705</v>
+        <v>0.808350423967083</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>284920</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>257466</v>
+        <v>254817</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>319127</v>
+        <v>320782</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2919477671332389</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2638158915067673</v>
+        <v>0.2611016372672302</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3269984541309833</v>
+        <v>0.328694268844208</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>416</v>
@@ -1626,19 +1626,19 @@
         <v>291457</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>264551</v>
+        <v>267146</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>320397</v>
+        <v>316062</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3206483016525255</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2910478799031589</v>
+        <v>0.2939031427771714</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3524867083051921</v>
+        <v>0.3477173506528519</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>671</v>
@@ -1647,19 +1647,19 @@
         <v>576377</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>538254</v>
+        <v>535212</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>619733</v>
+        <v>614467</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3057881863030616</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2855626597021557</v>
+        <v>0.2839485089815741</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3287902379301569</v>
+        <v>0.3259959729534996</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>17011</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9921</v>
+        <v>10269</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>26866</v>
+        <v>28158</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01743040550988015</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0101659068344209</v>
+        <v>0.01052185330493791</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02752827351697845</v>
+        <v>0.02885278520166289</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>19</v>
@@ -1697,19 +1697,19 @@
         <v>11881</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7043</v>
+        <v>7148</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>20402</v>
+        <v>22026</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01307094993114353</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.007748503172612004</v>
+        <v>0.007863523976948577</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02244588744764881</v>
+        <v>0.02423232223724958</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>35</v>
@@ -1718,19 +1718,19 @@
         <v>28892</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>19898</v>
+        <v>19444</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>44454</v>
+        <v>42234</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.01532812088095135</v>
+        <v>0.01532812088095134</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0105567756266663</v>
+        <v>0.01031564533793527</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02358433295192392</v>
+        <v>0.02240643204307095</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>673998</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>638703</v>
+        <v>638208</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>703266</v>
+        <v>706397</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.690621827356881</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6544567512422593</v>
+        <v>0.6539495830977713</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7206116236037382</v>
+        <v>0.7238203277858539</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>887</v>
@@ -1768,19 +1768,19 @@
         <v>605623</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>577905</v>
+        <v>580298</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>633399</v>
+        <v>629403</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.666280748416331</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6357858569462972</v>
+        <v>0.6384194160330029</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6968388026331382</v>
+        <v>0.6924421355795066</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1563</v>
@@ -1789,19 +1789,19 @@
         <v>1279621</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1235844</v>
+        <v>1238804</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1317740</v>
+        <v>1319515</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.6788836928159871</v>
+        <v>0.678883692815987</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.6556585258974909</v>
+        <v>0.657228827156163</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6991070256151191</v>
+        <v>0.7000485893098776</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>873290</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>810042</v>
+        <v>815786</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>935429</v>
+        <v>930004</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2509990640398291</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2328204631120262</v>
+        <v>0.2344712748649156</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2688589496519789</v>
+        <v>0.2672995676472202</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1423</v>
@@ -1914,19 +1914,19 @@
         <v>1000069</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>953305</v>
+        <v>948977</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1049433</v>
+        <v>1050243</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.2708350355930756</v>
+        <v>0.2708350355930755</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2581703495446172</v>
+        <v>0.2569983819179831</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2842035608806907</v>
+        <v>0.2844229254712596</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2216</v>
@@ -1935,19 +1935,19 @@
         <v>1873359</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1799222</v>
+        <v>1798192</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1953728</v>
+        <v>1949313</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.261212004200598</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.250874629470059</v>
+        <v>0.2507310424675139</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.272418207411775</v>
+        <v>0.2718026310836055</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>53533</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>38621</v>
+        <v>40343</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>71742</v>
+        <v>72989</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01538636205778519</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01110043804302334</v>
+        <v>0.01159541561560393</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02061987965511842</v>
+        <v>0.02097837415116559</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>63</v>
@@ -1985,19 +1985,19 @@
         <v>40196</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>30562</v>
+        <v>30518</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>53916</v>
+        <v>53262</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01088580257240275</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.008276624567581421</v>
+        <v>0.008264658016405772</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01460141462271928</v>
+        <v>0.01442426964159783</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>113</v>
@@ -2006,19 +2006,19 @@
         <v>93729</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>76461</v>
+        <v>76375</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>114135</v>
+        <v>115146</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.0130691604732392</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01066136910854795</v>
+        <v>0.01064941926229537</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01591441540008516</v>
+        <v>0.01605545809430626</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>2552433</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2491399</v>
+        <v>2495462</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2613285</v>
+        <v>2613447</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7336145739023857</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7160723332770522</v>
+        <v>0.7172400638849128</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7511046834986721</v>
+        <v>0.751150990784729</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3816</v>
@@ -2056,19 +2056,19 @@
         <v>2652275</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2605318</v>
+        <v>2604386</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2700695</v>
+        <v>2701878</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7182791618345217</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7055624209800269</v>
+        <v>0.7053100655224083</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7313919048148291</v>
+        <v>0.7317125149075495</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6312</v>
@@ -2077,19 +2077,19 @@
         <v>5204708</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5119245</v>
+        <v>5128155</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5276855</v>
+        <v>5281977</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7257188353261627</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7138023350937907</v>
+        <v>0.7150446392074187</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7357785751463636</v>
+        <v>0.736492818530209</v>
       </c>
     </row>
     <row r="23">
